--- a/data/trans_bre/P3A_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-20,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,3; 1,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,23; -14,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,62; -10,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 8,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,97; 8,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,98; -53,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,49; -37,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,8; 40,53</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,27%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; -6,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,33; -6,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; -8,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,83; -3,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,38; -27,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,34; -27,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,6; -32,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; -9,5</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,74%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,59; -6,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,05; -8,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,74; -10,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 1,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,49; -36,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,48; -38,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,55; -29,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,79; 4,69</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,1%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,56; 4,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,24; -10,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,62; -11,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,9; -11,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,01; 26,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,17; -41,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,17; -41,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,76; -39,4</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,36%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,93; -3,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,54; 3,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,35; -9,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,39; 3,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,03; -21,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,67; 27,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,69; -27,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,29; 13,97</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,6</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,68%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,07; 1,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,78; -4,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,01; -6,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,02; 4,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,6; 13,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,86; -18,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,42; -31,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,16; 11,46</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,5%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,02; -8,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,33; -4,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; -1,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,27; -2,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,11; -40,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,41; -18,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,43; -6,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,68; -8,66</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,78</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,23</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,35%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,6; -5,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,38; -8,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,69; -9,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,96; 0,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,93; -34,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,04; -30,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,88; -28,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,75; -5,56</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,85</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,92%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,72%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,48%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,64; -7,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,51; -10,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,71; -11,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,85; -1,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,97; -34,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,67; -39,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,31; -37,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,86; -9,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 1,33</t>
+          <t>-11,68; 1,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,23; -14,16</t>
+          <t>-26,98; -13,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,62; -10,46</t>
+          <t>-25,06; -10,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 8,56</t>
+          <t>-5,92; 7,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 8,33</t>
+          <t>-50,22; 8,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-80,98; -53,07</t>
+          <t>-81,31; -54,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,49; -37,66</t>
+          <t>-70,57; -37,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 40,53</t>
+          <t>-20,69; 36,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -6,07</t>
+          <t>-16,03; -5,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -6,16</t>
+          <t>-15,72; -5,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -8,86</t>
+          <t>-18,86; -8,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -3,47</t>
+          <t>-16,65; -3,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,38; -27,63</t>
+          <t>-57,61; -24,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,34; -27,95</t>
+          <t>-59,77; -27,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,6; -32,38</t>
+          <t>-58,6; -29,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,49; -9,5</t>
+          <t>-37,02; -9,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -6,1</t>
+          <t>-16,13; -5,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -8,83</t>
+          <t>-21,12; -9,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,74; -10,37</t>
+          <t>-25,05; -10,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 1,44</t>
+          <t>-10,93; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,49; -36,28</t>
+          <t>-74,72; -38,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,48; -38,86</t>
+          <t>-72,56; -42,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,55; -29,3</t>
+          <t>-56,53; -28,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 4,69</t>
+          <t>-29,47; 7,57</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 4,19</t>
+          <t>-8,84; 3,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -10,79</t>
+          <t>-22,96; -10,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,62; -11,89</t>
+          <t>-25,24; -12,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,9; -11,09</t>
+          <t>-27,4; -10,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 26,17</t>
+          <t>-34,96; 18,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,17; -41,16</t>
+          <t>-69,26; -40,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,17; -41,83</t>
+          <t>-70,27; -44,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,76; -39,4</t>
+          <t>-74,66; -39,22</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,93; -3,77</t>
+          <t>-17,7; -3,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 3,53</t>
+          <t>-10,84; 2,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -9,22</t>
+          <t>-25,8; -9,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 3,04</t>
+          <t>-16,34; 2,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-70,03; -21,03</t>
+          <t>-69,77; -15,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 27,8</t>
+          <t>-48,79; 19,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,69; -27,49</t>
+          <t>-63,86; -29,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-56,29; 13,97</t>
+          <t>-61,57; 9,05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 1,9</t>
+          <t>-10,77; 1,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,78; -4,91</t>
+          <t>-18,84; -3,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -6,76</t>
+          <t>-19,66; -6,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 4,16</t>
+          <t>-10,34; 4,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 13,88</t>
+          <t>-53,19; 10,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,86; -18,15</t>
+          <t>-55,76; -14,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,42; -31,83</t>
+          <t>-69,4; -31,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 11,46</t>
+          <t>-23,6; 11,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -8,61</t>
+          <t>-17,49; -8,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -4,56</t>
+          <t>-14,16; -5,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,4; -1,77</t>
+          <t>-10,23; -0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,27; -2,26</t>
+          <t>-22,11; -2,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-66,11; -40,96</t>
+          <t>-66,3; -42,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-48,41; -18,59</t>
+          <t>-47,39; -20,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-34,43; -6,22</t>
+          <t>-33,1; -2,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-67,68; -8,66</t>
+          <t>-69,36; -9,82</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -5,76</t>
+          <t>-12,65; -5,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -8,2</t>
+          <t>-17,48; -8,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -9,84</t>
+          <t>-18,72; -9,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 0,87</t>
+          <t>-13,01; -0,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,93; -34,42</t>
+          <t>-60,46; -33,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,04; -30,92</t>
+          <t>-52,81; -30,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,88; -28,92</t>
+          <t>-48,77; -29,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-73,75; -5,56</t>
+          <t>-73,45; -9,17</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -7,02</t>
+          <t>-10,76; -7,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -10,52</t>
+          <t>-14,65; -10,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,71; -11,62</t>
+          <t>-16,06; -11,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -1,59</t>
+          <t>-10,68; -1,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-48,97; -34,99</t>
+          <t>-49,24; -35,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-50,67; -39,92</t>
+          <t>-51,08; -39,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -37,07</t>
+          <t>-47,73; -37,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -9,74</t>
+          <t>-38,19; -9,71</t>
         </is>
       </c>
     </row>
